--- a/biology/Médecine/Stéphanie_de_Montaneis/Stéphanie_de_Montaneis.xlsx
+++ b/biology/Médecine/Stéphanie_de_Montaneis/Stéphanie_de_Montaneis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phanie_de_Montaneis</t>
+          <t>Stéphanie_de_Montaneis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphanie de Montaneis est un médecin à Lyon du milieu du XIIIe siècle[1].
-Le XIIIe siècle est une époque qui s'est avérée difficile pour les femmes qui essayent d'entrer dans le domaine médical via le système éducationnel traditionnel. Certaines femmes réussissent à devenir médecin car leur famille est dans la médecine. Le père de Stéphanie, Étienne de Montaneis, était médecin à Lyon et il est plus que probable qu'elle a reçu sa formation de lui. En 1265, elle était désignée par le terme de medica[1].
-Le nom de Stéphanie de Montaneis fait partie de la Liste des femmes mentionnées sur The Dinner Party, une installation artistique de Judy Chicago[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphanie de Montaneis est un médecin à Lyon du milieu du XIIIe siècle.
+Le XIIIe siècle est une époque qui s'est avérée difficile pour les femmes qui essayent d'entrer dans le domaine médical via le système éducationnel traditionnel. Certaines femmes réussissent à devenir médecin car leur famille est dans la médecine. Le père de Stéphanie, Étienne de Montaneis, était médecin à Lyon et il est plus que probable qu'elle a reçu sa formation de lui. En 1265, elle était désignée par le terme de medica.
+Le nom de Stéphanie de Montaneis fait partie de la Liste des femmes mentionnées sur The Dinner Party, une installation artistique de Judy Chicago.
 </t>
         </is>
       </c>
